--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2459946.428984893</v>
+        <v>2454224.817017007</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.58283624</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>237.1298127151658</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>178.0961400445155</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>129.0666178516128</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>366.1060285943186</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>214.5439541644243</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481175</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>54.5454870701497</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1153,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>88.85332002005431</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>4.143218791276835</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>44.82579829756067</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853703</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>145.8215431037984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>74.7576914549245</v>
+        <v>43.54171107304222</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>84.78512906876149</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>87.33184615013555</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1903,7 +1903,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470136</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18.93482921065027</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>138.7178665021162</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>10.70607695867365</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250816</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>69.33603223847368</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>68.74868616823339</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292658</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>19.33998136873023</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2967,10 +2967,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>14.61585847485924</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>27.3110515374914</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3243,19 +3243,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>52.23543626470332</v>
+        <v>94.10627100086371</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -3480,7 +3480,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9212967840876</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3717,7 +3717,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3796,7 +3796,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3957,16 +3957,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>193.0697012992159</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>58.31149652847278</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1268.68094731003</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2032.286037546921</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2032.286037546921</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1658.820279285841</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1268.68094731003</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1233.603060210037</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696254</v>
+        <v>1997.12368673424</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1638.85798812749</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1253.069735529245</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177352</v>
+        <v>842.0838307396377</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036443</v>
+        <v>424.1200226378246</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036443</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.546461473039</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.546461473039</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.546461473039</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X5" t="n">
-        <v>1993.546461473039</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y5" t="n">
-        <v>1603.407129497228</v>
+        <v>2366.086203674652</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036443</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>259.15607281871</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036443</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036443</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036443</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245968</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245968</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245968</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>259.15607281871</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>259.15607281871</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>259.15607281871</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>259.15607281871</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1714.263756178945</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>1281.586091536708</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>895.7978389384634</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>484.8119341488559</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>470.8885300874468</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>143.6938101234496</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2692.964021532083</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2474.329354504146</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2474.329354504146</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2474.329354504146</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2474.329354504146</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2100.863596243066</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>2100.863596243066</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614628</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598714</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>438.9553738610019</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C10" t="n">
-        <v>393.6767897220518</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>393.6767897220518</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>393.6767897220518</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.128984206434</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.128984206434</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>728.128984206434</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>728.128984206434</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610019</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610019</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610019</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610019</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.9553738610019</v>
+        <v>551.4175770764215</v>
       </c>
     </row>
     <row r="11">
@@ -5020,49 +5020,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1586.925993846822</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2120.457898518747</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N11" t="n">
-        <v>2667.236715577529</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O11" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5150,7 +5150,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447819</v>
@@ -5159,13 +5159,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>171.0738540998333</v>
+        <v>307.2453974100818</v>
       </c>
       <c r="C13" t="n">
-        <v>171.0738540998333</v>
+        <v>307.2453974100818</v>
       </c>
       <c r="D13" t="n">
-        <v>171.0738540998333</v>
+        <v>307.2453974100818</v>
       </c>
       <c r="E13" t="n">
-        <v>171.0738540998333</v>
+        <v>307.2453974100818</v>
       </c>
       <c r="F13" t="n">
-        <v>171.0738540998333</v>
+        <v>307.2453974100818</v>
       </c>
       <c r="G13" t="n">
-        <v>171.0738540998333</v>
+        <v>139.5425607848007</v>
       </c>
       <c r="H13" t="n">
-        <v>171.0738540998333</v>
+        <v>139.5425607848007</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5202,49 +5202,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689059</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258585</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783413</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413808</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X13" t="n">
-        <v>391.8664332433634</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.0738540998333</v>
+        <v>488.8938622403215</v>
       </c>
     </row>
     <row r="14">
@@ -5257,13 +5257,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
@@ -5284,13 +5284,13 @@
         <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1453.840519464784</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294613</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353395</v>
+        <v>2730.494725501681</v>
       </c>
       <c r="O14" t="n">
         <v>3482.142110232732</v>
@@ -5317,7 +5317,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
@@ -5363,7 +5363,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5375,22 +5375,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.7209910686896</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7848081407827</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D16" t="n">
-        <v>388.668168728447</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E16" t="n">
-        <v>388.668168728447</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5469,19 +5469,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1453.060509258584</v>
+        <v>1367.418964744684</v>
       </c>
       <c r="V16" t="n">
-        <v>1198.376021052697</v>
+        <v>1112.734476538797</v>
       </c>
       <c r="W16" t="n">
-        <v>1198.376021052697</v>
+        <v>823.3173065018362</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.162035042459</v>
+        <v>595.3277556038189</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3694558989293</v>
+        <v>374.5351764602888</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5500,10 +5500,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5518,49 +5518,49 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1002.806306216375</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1453.840519464783</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294612</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353394</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
@@ -5594,10 +5594,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
         <v>794.2006632320242</v>
@@ -5612,22 +5612,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>241.7782212305366</v>
+        <v>554.7329138614817</v>
       </c>
       <c r="C19" t="n">
-        <v>241.7782212305366</v>
+        <v>385.7967309335748</v>
       </c>
       <c r="D19" t="n">
-        <v>241.7782212305366</v>
+        <v>235.6800915212391</v>
       </c>
       <c r="E19" t="n">
-        <v>241.7782212305366</v>
+        <v>235.6800915212391</v>
       </c>
       <c r="F19" t="n">
-        <v>241.7782212305366</v>
+        <v>235.6800915212391</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>235.6800915212391</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5709,16 +5709,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838521</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858347</v>
+        <v>736.3813786917215</v>
       </c>
       <c r="Y19" t="n">
-        <v>260.9043113423046</v>
+        <v>736.3813786917215</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,13 +5737,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5767,19 +5767,19 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
         <v>4461.783306331037</v>
@@ -5788,16 +5788,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5834,10 +5834,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.9597618327374</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>784.0235789048305</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1945.529246954528</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1945.529246954528</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1656.426380080172</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1401.741891874285</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>1401.741891874285</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>1173.752340976268</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>952.9597618327374</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O23" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
         <v>4195.497197679678</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,64 +6044,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>630.8674397712578</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C25" t="n">
-        <v>461.9312568433509</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>311.8146174310151</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>311.8146174310151</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>311.8146174310151</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T25" t="n">
-        <v>1866.513008862232</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1577.410141987875</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1322.725653781988</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W25" t="n">
-        <v>1033.308483745028</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X25" t="n">
-        <v>1033.308483745028</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y25" t="n">
-        <v>812.5159046014975</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193956</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6329,10 +6329,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6411,7 +6411,7 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
         <v>1559.196154437386</v>
@@ -6442,22 +6442,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6466,19 +6466,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>806.1613418786392</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1670.680157531994</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2649.230460361822</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P29" t="n">
         <v>4470.748294107237</v>
@@ -6490,25 +6490,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,34 +6518,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
         <v>794.200663232024</v>
@@ -6557,25 +6557,25 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>528.0379765536123</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="C31" t="n">
-        <v>508.5026418377232</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="D31" t="n">
-        <v>508.5026418377232</v>
+        <v>523.266135246672</v>
       </c>
       <c r="E31" t="n">
-        <v>360.5895482553301</v>
+        <v>375.3530416642789</v>
       </c>
       <c r="F31" t="n">
-        <v>360.5895482553301</v>
+        <v>375.3530416642789</v>
       </c>
       <c r="G31" t="n">
-        <v>192.8867116300491</v>
+        <v>207.6502050389978</v>
       </c>
       <c r="H31" t="n">
         <v>192.8867116300491</v>
@@ -6624,7 +6624,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X31" t="n">
-        <v>709.6864413838521</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="Y31" t="n">
-        <v>709.6864413838521</v>
+        <v>673.3827746590077</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>451.8458144277729</v>
@@ -6706,46 +6706,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390116</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6797,22 +6797,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>681.2836032803235</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>909.2731541783409</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>681.2836032803235</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>681.2836032803235</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6934,7 +6934,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
@@ -6943,25 +6943,25 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1898.858917622687</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294612</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353394</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
         <v>4667.761053946815</v>
@@ -6973,7 +6973,7 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7022,7 +7022,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7034,16 +7034,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3531.394697698868</v>
+        <v>770.7997573601911</v>
       </c>
       <c r="C37" t="n">
-        <v>3531.394697698868</v>
+        <v>601.8635744322842</v>
       </c>
       <c r="D37" t="n">
-        <v>3381.278058286533</v>
+        <v>601.8635744322842</v>
       </c>
       <c r="E37" t="n">
-        <v>3381.278058286533</v>
+        <v>601.8635744322842</v>
       </c>
       <c r="F37" t="n">
-        <v>3328.514991352489</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G37" t="n">
-        <v>3160.812154727208</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
-        <v>3014.594967945065</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>4586.365838246546</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>4364.599222816072</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>4075.496355941716</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V37" t="n">
-        <v>3820.811867735829</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W37" t="n">
-        <v>3531.394697698868</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X37" t="n">
-        <v>3531.394697698868</v>
+        <v>770.7997573601911</v>
       </c>
       <c r="Y37" t="n">
-        <v>3531.394697698868</v>
+        <v>770.7997573601911</v>
       </c>
     </row>
     <row r="38">
@@ -7153,25 +7153,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
         <v>451.8458144277729</v>
@@ -7186,40 +7186,40 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7259,7 +7259,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>391.866433243363</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>391.866433243363</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>391.866433243363</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7396,10 +7396,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001584</v>
@@ -7408,40 +7408,40 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>753.1470291944236</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1617.665844847778</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2151.197749519703</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3130.95002174635</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
         <v>4208.252829604874</v>
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>877.1197344942216</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C43" t="n">
-        <v>708.1835515663147</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D43" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1253.788099626699</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>1253.788099626699</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>1253.788099626699</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>1058.768199324461</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7627,25 +7627,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
         <v>451.8458144277729</v>
@@ -7654,46 +7654,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>401.9038525862967</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>401.9038525862967</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>251.787213173961</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>251.787213173961</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>251.787213173961</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1355.643526557401</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>1100.959038351514</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>811.5418683145538</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>583.5523174165364</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>583.5523174165364</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.28657940933</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270198</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627893</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>29.61882225791987</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8932,16 +8932,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>219.3344627260163</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>251.1867816683983</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9166,19 +9166,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>219.3344627260154</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9643,7 +9643,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,10 +9652,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>285.7011105564207</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>189.7998007892656</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10123,10 +10123,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>344.7025836476828</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10834,10 +10834,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>344.7025836476837</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>136.2499899971285</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>21.59472895491359</v>
+        <v>52.8107093367959</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>201.4267091368514</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>138.3778092389016</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>160.897150971287</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,7 +23907,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>6.037148412204544</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>179.0629483727682</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
     </row>
     <row r="23">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>96.68977602055455</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>183.3889571555946</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>147.9068397298976</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>130.1391564394615</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>139.9357695611364</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>93.18561175822792</v>
+        <v>51.31477702206753</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6941762341247397</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,7 +25836,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>25.5149520528789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>107.7143117305554</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>814990.2678413782</v>
+        <v>814990.2678413785</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>814990.2678413783</v>
+        <v>814990.2678413782</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>814990.2678413783</v>
+        <v>814990.2678413782</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>814990.2678413783</v>
+        <v>814990.2678413782</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
-        <v>595622.6803304745</v>
+        <v>595622.6803304747</v>
       </c>
       <c r="F2" t="n">
-        <v>595622.6803304744</v>
+        <v>595622.680330475</v>
       </c>
       <c r="G2" t="n">
         <v>595622.6803304746</v>
       </c>
       <c r="H2" t="n">
-        <v>595622.6803304751</v>
+        <v>595622.6803304744</v>
       </c>
       <c r="I2" t="n">
+        <v>595622.6803304745</v>
+      </c>
+      <c r="J2" t="n">
+        <v>595622.6803304749</v>
+      </c>
+      <c r="K2" t="n">
         <v>595622.6803304747</v>
       </c>
-      <c r="J2" t="n">
-        <v>595622.6803304747</v>
-      </c>
-      <c r="K2" t="n">
-        <v>595622.6803304751</v>
-      </c>
       <c r="L2" t="n">
-        <v>595622.680330475</v>
+        <v>595622.6803304749</v>
       </c>
       <c r="M2" t="n">
-        <v>595622.6803304746</v>
+        <v>595622.6803304744</v>
       </c>
       <c r="N2" t="n">
         <v>595622.6803304747</v>
       </c>
       <c r="O2" t="n">
+        <v>595622.6803304749</v>
+      </c>
+      <c r="P2" t="n">
         <v>595622.6803304747</v>
-      </c>
-      <c r="P2" t="n">
-        <v>595622.680330475</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934073</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
         <v>129642.3148389448</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21619.60799709182</v>
+      </c>
+      <c r="H4" t="n">
         <v>21619.60799709186</v>
       </c>
-      <c r="F4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21619.60799709187</v>
-      </c>
       <c r="I4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="J4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="L4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="M4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="O4" t="n">
         <v>21619.60799709186</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>21619.60799709186</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="P4" t="n">
-        <v>21619.60799709187</v>
       </c>
     </row>
     <row r="5">
@@ -26475,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340944</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
@@ -26490,28 +26490,28 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="M5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="O5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="P5" t="n">
-        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-249252.2262721711</v>
+        <v>-249252.226272171</v>
       </c>
       <c r="C6" t="n">
-        <v>340715.652942374</v>
+        <v>340715.6529423735</v>
       </c>
       <c r="D6" t="n">
-        <v>340715.6529423737</v>
+        <v>340715.6529423731</v>
       </c>
       <c r="E6" t="n">
-        <v>-249757.8599137383</v>
+        <v>-250429.8148159953</v>
       </c>
       <c r="F6" t="n">
-        <v>477619.5540796691</v>
+        <v>476947.5991774113</v>
       </c>
       <c r="G6" t="n">
-        <v>477619.5540796691</v>
+        <v>476947.5991774112</v>
       </c>
       <c r="H6" t="n">
-        <v>477619.5540796696</v>
+        <v>476947.5991774109</v>
       </c>
       <c r="I6" t="n">
-        <v>477619.5540796692</v>
+        <v>476947.5991774112</v>
       </c>
       <c r="J6" t="n">
-        <v>301196.3348870764</v>
+        <v>300524.3799848182</v>
       </c>
       <c r="K6" t="n">
-        <v>477619.5540796696</v>
+        <v>476947.5991774113</v>
       </c>
       <c r="L6" t="n">
-        <v>477619.5540796695</v>
+        <v>476947.5991774113</v>
       </c>
       <c r="M6" t="n">
-        <v>347977.2392407244</v>
+        <v>347305.2843384661</v>
       </c>
       <c r="N6" t="n">
-        <v>477619.5540796693</v>
+        <v>476947.5991774113</v>
       </c>
       <c r="O6" t="n">
-        <v>477619.5540796692</v>
+        <v>476947.5991774115</v>
       </c>
       <c r="P6" t="n">
-        <v>477619.5540796695</v>
+        <v>476947.5991774113</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762121</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26983,13 +26983,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>144.800557357096</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>149.6561184256194</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>50.76536233032454</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>17.8816912783675</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.62781306916202</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>109.3788185999329</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>112.7013340284781</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>63.07799622480694</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481177</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>170.2724940176947</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>122.4210228010672</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28022,19 +28022,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491434</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>140.4603311381793</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-6.823790099157014e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,31 +31357,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32554,7 +32554,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32569,7 +32569,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33979,7 +33979,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856238</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.811094813734</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307157</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>485.2089366502522</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509647</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,16 +35652,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>674.9245771183485</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>759.2397825566175</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
@@ -35886,19 +35886,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>556.5257492814159</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>743.6379293484354</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36202,7 +36202,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36217,7 +36217,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36360,25 +36360,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>684.4630967757926</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>526.991087344666</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37083,7 +37083,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37311,7 +37311,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>800.292698040015</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37554,10 +37554,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>897.0044190605952</v>
       </c>
       <c r="O38" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37627,7 +37627,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>473.441276552529</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -38022,7 +38022,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38031,7 +38031,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2454224.817017007</v>
+        <v>2457630.308141457</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>237.1298127151658</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>296.2309411152779</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129.0666178516128</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>404.3795358314629</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>214.5439541644243</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1059,16 +1059,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>55.90301252244944</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,10 +1150,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>88.85332002005431</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598869</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>8.715333384834803</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>145.8215431037984</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>43.54171107304222</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>58.75796403542119</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>102.0175938224536</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>84.78512906876149</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470136</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.7178665021162</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2061,16 +2061,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>94.49049587705485</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>113.5103646250816</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>7.601081015448278</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2535,7 +2535,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>68.74868616823339</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292658</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>41.17718528387896</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>203.4068132192029</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>18.26879610203984</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>14.61585847485924</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653454</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>94.10627100086371</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>84.69473660442847</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -4188,10 +4188,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U46" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4312,13 +4312,13 @@
         <v>1275.883734065348</v>
       </c>
       <c r="D2" t="n">
-        <v>1275.883734065348</v>
+        <v>917.6180354585974</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>917.6180354585974</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>506.6321306689899</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424004</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673422</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.7691122461817</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.1394333084169</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2366.086203674652</v>
+        <v>1589.347031634718</v>
       </c>
       <c r="C5" t="n">
-        <v>1997.12368673424</v>
+        <v>1220.384514694307</v>
       </c>
       <c r="D5" t="n">
-        <v>1638.85798812749</v>
+        <v>862.1188160875561</v>
       </c>
       <c r="E5" t="n">
-        <v>1253.069735529245</v>
+        <v>476.3305634893118</v>
       </c>
       <c r="F5" t="n">
-        <v>842.0838307396377</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>424.1200226378246</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4612,7 +4612,7 @@
         <v>2366.086203674652</v>
       </c>
       <c r="Y5" t="n">
-        <v>2366.086203674652</v>
+        <v>1975.94687169884</v>
       </c>
     </row>
     <row r="6">
@@ -4655,16 +4655,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>671.6612947898188</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1639.851790143458</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1639.851790143458</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1281.586091536708</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>895.7978389384634</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>484.8119341488559</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>470.8885300874468</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>143.6938101234496</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
@@ -4819,7 +4819,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4840,16 +4840,16 @@
         <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.851790143458</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4886,13 +4886,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>369.7691122461817</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>529.7758821321496</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>379.6592427198138</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>231.7461491374207</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036446</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U10" t="n">
-        <v>551.4175770764215</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="V10" t="n">
-        <v>551.4175770764215</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="W10" t="n">
-        <v>551.4175770764215</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="X10" t="n">
-        <v>551.4175770764215</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.4175770764215</v>
+        <v>698.7120650600565</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5026,13 +5026,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5041,28 +5041,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542187</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5071,22 +5071,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,64 +5096,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193582</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320235</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>307.2453974100818</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="C13" t="n">
-        <v>307.2453974100818</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="D13" t="n">
-        <v>307.2453974100818</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E13" t="n">
-        <v>307.2453974100818</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F13" t="n">
-        <v>307.2453974100818</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5425607848007</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>139.5425607848007</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.657581931529</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1355.6435265574</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208122</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838516</v>
+        <v>1041.607559527856</v>
       </c>
       <c r="X13" t="n">
-        <v>709.6864413838516</v>
+        <v>813.6180086298384</v>
       </c>
       <c r="Y13" t="n">
-        <v>488.8938622403215</v>
+        <v>592.8254294863083</v>
       </c>
     </row>
     <row r="14">
@@ -5257,13 +5257,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
@@ -5278,28 +5278,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1650.184003770974</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.715908442899</v>
+        <v>2047.844055175503</v>
       </c>
       <c r="N14" t="n">
-        <v>2730.494725501681</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5311,13 +5311,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5357,13 +5357,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5375,22 +5375,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>192.8867116300491</v>
+        <v>803.8133219477185</v>
       </c>
       <c r="C16" t="n">
-        <v>192.8867116300491</v>
+        <v>803.8133219477185</v>
       </c>
       <c r="D16" t="n">
-        <v>192.8867116300491</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E16" t="n">
-        <v>192.8867116300491</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F16" t="n">
-        <v>192.8867116300491</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
         <v>192.8867116300491</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1763.464934294096</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1541.698318863622</v>
       </c>
       <c r="U16" t="n">
-        <v>1367.418964744684</v>
+        <v>1252.595451989266</v>
       </c>
       <c r="V16" t="n">
-        <v>1112.734476538797</v>
+        <v>1252.595451989266</v>
       </c>
       <c r="W16" t="n">
-        <v>823.3173065018362</v>
+        <v>1252.595451989266</v>
       </c>
       <c r="X16" t="n">
-        <v>595.3277556038189</v>
+        <v>1024.605901091249</v>
       </c>
       <c r="Y16" t="n">
-        <v>374.5351764602888</v>
+        <v>803.8133219477185</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5500,10 +5500,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5515,28 +5515,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1521.86673817257</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2055.398642844495</v>
+        <v>2064.476622801002</v>
       </c>
       <c r="N17" t="n">
-        <v>2602.177459903277</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5545,22 +5545,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5609,25 +5609,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>554.7329138614817</v>
+        <v>411.3871648742117</v>
       </c>
       <c r="C19" t="n">
-        <v>385.7967309335748</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D19" t="n">
-        <v>235.6800915212391</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E19" t="n">
-        <v>235.6800915212391</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>235.6800915212391</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>235.6800915212391</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.788099626699</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W19" t="n">
-        <v>964.3709295897388</v>
+        <v>909.27315417834</v>
       </c>
       <c r="X19" t="n">
-        <v>736.3813786917215</v>
+        <v>813.8282088479815</v>
       </c>
       <c r="Y19" t="n">
-        <v>736.3813786917215</v>
+        <v>593.0356297044514</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,16 +5737,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5767,37 +5767,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
@@ -5834,7 +5834,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
         <v>794.2006632320243</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5934,25 +5934,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
         <v>277.2094992786341</v>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,13 +5974,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089256</v>
@@ -5989,52 +5989,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1898.858917622689</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,64 +6044,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
         <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>264.4972173763014</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6150,49 +6150,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1948.66560649314</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V25" t="n">
-        <v>1184.344982285049</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W25" t="n">
-        <v>894.9278122480886</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X25" t="n">
-        <v>666.9382613500712</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y25" t="n">
-        <v>446.1456822065411</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089263</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6296,22 +6296,22 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6323,7 +6323,7 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>770.7997573601911</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>601.8635744322842</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>451.7469350199484</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6414,22 +6414,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>770.7997573601911</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>770.7997573601911</v>
       </c>
     </row>
     <row r="29">
@@ -6451,49 +6451,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>386.2645671479357</v>
       </c>
       <c r="K29" t="n">
-        <v>806.1613418786392</v>
+        <v>1040.987899283235</v>
       </c>
       <c r="L29" t="n">
-        <v>1670.680157531994</v>
+        <v>1905.50671493659</v>
       </c>
       <c r="M29" t="n">
-        <v>2649.230460361822</v>
+        <v>2439.038619608515</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>2985.817436667297</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750059</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604874</v>
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>673.3827746590077</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C31" t="n">
-        <v>673.3827746590077</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D31" t="n">
-        <v>523.266135246672</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E31" t="n">
-        <v>375.3530416642789</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F31" t="n">
-        <v>375.3530416642789</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>207.6502050389978</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.576850674229</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>901.3723255570251</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>673.3827746590077</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>673.3827746590077</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
@@ -6782,37 +6782,37 @@
         <v>189.2383039390116</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6885,10 +6885,10 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
         <v>1270.093287563029</v>
@@ -6916,16 +6916,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6943,13 +6943,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -6964,19 +6964,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
@@ -7022,7 +7022,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7034,22 +7034,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>770.7997573601911</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>601.8635744322842</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>601.8635744322842</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>601.8635744322842</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.890966501056</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>1288.206478295169</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>998.7893082582084</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>770.7997573601911</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>770.7997573601911</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
@@ -7162,40 +7162,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353395</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
@@ -7253,10 +7253,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L39" t="n">
         <v>794.2006632320242</v>
@@ -7271,22 +7271,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7356,13 +7356,13 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
         <v>1270.093287563029</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>753.1470291944236</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1617.665844847778</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2151.197749519703</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3130.95002174635</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4010.914672075804</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,22 +7520,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7596,7 +7596,7 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
         <v>1559.196154437386</v>
@@ -7627,22 +7627,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839441</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7836,7 +7836,7 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
         <v>1270.093287563029</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028829</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476853</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>73.34731650832828</v>
       </c>
       <c r="O14" t="n">
-        <v>251.1867816683983</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>288.0478149561032</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>48.65289230147175</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9643,7 +9643,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>344.7025836476847</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>344.7025836476822</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>102.8529310510261</v>
       </c>
       <c r="K29" t="n">
-        <v>189.7998007892656</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476829</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10591,16 +10591,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>344.7025836476838</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>344.7025836476837</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>136.2499899971285</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>52.8107093367959</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>227.7650343011698</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>87.75143150898825</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>201.4267091368514</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>6.037148412204544</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>131.2191595119823</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>182.1679443159936</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>183.3889571555946</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>105.2567773626902</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>16.14213605696631</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>161.5631840798974</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>130.1391564394615</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25125,13 +25125,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>51.31477702206753</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U46" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>814990.2678413782</v>
+        <v>814990.2678413785</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>814990.2678413782</v>
+        <v>814990.2678413783</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>814990.2678413782</v>
+        <v>814990.2678413783</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>814990.2678413785</v>
+        <v>814990.2678413782</v>
       </c>
     </row>
     <row r="12">
@@ -26319,37 +26319,37 @@
         <v>615781.3273982127</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.327398213</v>
       </c>
       <c r="E2" t="n">
         <v>595622.6803304747</v>
       </c>
       <c r="F2" t="n">
-        <v>595622.680330475</v>
+        <v>595622.6803304747</v>
       </c>
       <c r="G2" t="n">
         <v>595622.6803304746</v>
       </c>
       <c r="H2" t="n">
-        <v>595622.6803304744</v>
+        <v>595622.680330475</v>
       </c>
       <c r="I2" t="n">
-        <v>595622.6803304745</v>
+        <v>595622.6803304747</v>
       </c>
       <c r="J2" t="n">
         <v>595622.6803304749</v>
       </c>
       <c r="K2" t="n">
-        <v>595622.6803304747</v>
+        <v>595622.680330475</v>
       </c>
       <c r="L2" t="n">
         <v>595622.6803304749</v>
       </c>
       <c r="M2" t="n">
-        <v>595622.6803304744</v>
+        <v>595622.680330475</v>
       </c>
       <c r="N2" t="n">
-        <v>595622.6803304747</v>
+        <v>595622.680330475</v>
       </c>
       <c r="O2" t="n">
         <v>595622.6803304749</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,28 +26374,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934063</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>129642.3148389448</v>
@@ -26420,7 +26420,7 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
@@ -26429,34 +26429,34 @@
         <v>21619.60799709189</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709182</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="J4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="N4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="O4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21619.60799709186</v>
       </c>
       <c r="P4" t="n">
         <v>21619.60799709186</v>
@@ -26475,25 +26475,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
@@ -26508,7 +26508,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-249252.226272171</v>
+        <v>-249252.2262721711</v>
       </c>
       <c r="C6" t="n">
         <v>340715.6529423735</v>
       </c>
       <c r="D6" t="n">
-        <v>340715.6529423731</v>
+        <v>340715.6529423738</v>
       </c>
       <c r="E6" t="n">
-        <v>-250429.8148159953</v>
+        <v>-249825.0554039629</v>
       </c>
       <c r="F6" t="n">
-        <v>476947.5991774113</v>
+        <v>477552.3585894435</v>
       </c>
       <c r="G6" t="n">
-        <v>476947.5991774112</v>
+        <v>477552.3585894434</v>
       </c>
       <c r="H6" t="n">
-        <v>476947.5991774109</v>
+        <v>477552.3585894436</v>
       </c>
       <c r="I6" t="n">
-        <v>476947.5991774112</v>
+        <v>477552.3585894433</v>
       </c>
       <c r="J6" t="n">
-        <v>300524.3799848182</v>
+        <v>301129.1393968508</v>
       </c>
       <c r="K6" t="n">
-        <v>476947.5991774113</v>
+        <v>477552.3585894437</v>
       </c>
       <c r="L6" t="n">
-        <v>476947.5991774113</v>
+        <v>477552.3585894436</v>
       </c>
       <c r="M6" t="n">
-        <v>347305.2843384661</v>
+        <v>347910.0437504988</v>
       </c>
       <c r="N6" t="n">
-        <v>476947.5991774113</v>
+        <v>477552.3585894437</v>
       </c>
       <c r="O6" t="n">
-        <v>476947.5991774115</v>
+        <v>477552.3585894436</v>
       </c>
       <c r="P6" t="n">
-        <v>476947.5991774113</v>
+        <v>477552.3585894435</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26758,7 +26758,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,28 +26968,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762113</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>144.800557357096</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>117.5532289055171</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.76536233032454</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>150.3569555942787</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2.496509910248562</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>109.3788185999329</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,16 +27779,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>230.6199858141416</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>63.07799622480694</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858218</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>136.7057146380965</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>140.4603311381793</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-6.823790099157014e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32554,7 +32554,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34222,7 +34222,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34450,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,19 +35023,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359043</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>625.6491519212395</v>
       </c>
       <c r="O14" t="n">
-        <v>759.2397825566175</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>743.6379293484354</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>587.5740081316983</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36202,7 +36202,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L23" t="n">
-        <v>800.2926980400166</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359016</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>293.6399320197387</v>
       </c>
       <c r="K29" t="n">
-        <v>526.991087344666</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>852.755584535902</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37320,7 +37320,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>897.0044190605952</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>473.441276552529</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37870,7 +37870,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
@@ -38098,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
